--- a/biology/Médecine/Processus_zygomatique_du_maxillaire/Processus_zygomatique_du_maxillaire.xlsx
+++ b/biology/Médecine/Processus_zygomatique_du_maxillaire/Processus_zygomatique_du_maxillaire.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t>Le processus zygomatique du maxillaire (ou apophyse pyramidale du maxillaire ou apophyse malaire du maxillaire ou apophyse zygomatique du maxillaire) est une éminence pyramidale triangulaire faisant saillie sur la face externe de l'os maxillaire.
 Il présente trois faces et un sommet :
